--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Col11a1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.014446</v>
+        <v>0.1688733333333333</v>
       </c>
       <c r="H2">
-        <v>0.043338</v>
+        <v>0.50662</v>
       </c>
       <c r="I2">
-        <v>0.00401297433920606</v>
+        <v>0.05694728301592414</v>
       </c>
       <c r="J2">
-        <v>0.004012974339206059</v>
+        <v>0.05694728301592415</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N2">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O2">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P2">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q2">
-        <v>0.003329706693333333</v>
+        <v>0.1025107292044444</v>
       </c>
       <c r="R2">
-        <v>0.02996736024</v>
+        <v>0.92259656284</v>
       </c>
       <c r="S2">
-        <v>5.26716383565162E-05</v>
+        <v>0.003401872182060773</v>
       </c>
       <c r="T2">
-        <v>5.26716383565162E-05</v>
+        <v>0.003401872182060773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.014446</v>
+        <v>0.1688733333333333</v>
       </c>
       <c r="H3">
-        <v>0.043338</v>
+        <v>0.50662</v>
       </c>
       <c r="I3">
-        <v>0.00401297433920606</v>
+        <v>0.05694728301592414</v>
       </c>
       <c r="J3">
-        <v>0.004012974339206059</v>
+        <v>0.05694728301592415</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.941443</v>
       </c>
       <c r="O3">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P3">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q3">
-        <v>0.06231736185933334</v>
+        <v>0.7284882058511111</v>
       </c>
       <c r="R3">
-        <v>0.560856256734</v>
+        <v>6.556393852659999</v>
       </c>
       <c r="S3">
-        <v>0.0009857797846755771</v>
+        <v>0.02417526225476124</v>
       </c>
       <c r="T3">
-        <v>0.0009857797846755771</v>
+        <v>0.02417526225476124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.014446</v>
+        <v>0.1688733333333333</v>
       </c>
       <c r="H4">
-        <v>0.043338</v>
+        <v>0.50662</v>
       </c>
       <c r="I4">
-        <v>0.00401297433920606</v>
+        <v>0.05694728301592414</v>
       </c>
       <c r="J4">
-        <v>0.004012974339206059</v>
+        <v>0.05694728301592415</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N4">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O4">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P4">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q4">
-        <v>0.004266419040666667</v>
+        <v>0.06081556545777778</v>
       </c>
       <c r="R4">
-        <v>0.038397771366</v>
+        <v>0.5473400891200001</v>
       </c>
       <c r="S4">
-        <v>6.748921195890242E-05</v>
+        <v>0.002018196358300225</v>
       </c>
       <c r="T4">
-        <v>6.748921195890242E-05</v>
+        <v>0.002018196358300225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.014446</v>
+        <v>0.1688733333333333</v>
       </c>
       <c r="H5">
-        <v>0.043338</v>
+        <v>0.50662</v>
       </c>
       <c r="I5">
-        <v>0.00401297433920606</v>
+        <v>0.05694728301592414</v>
       </c>
       <c r="J5">
-        <v>0.004012974339206059</v>
+        <v>0.05694728301592415</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N5">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O5">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P5">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q5">
-        <v>0.1689167842646667</v>
+        <v>0.7017211633155556</v>
       </c>
       <c r="R5">
-        <v>1.520251058382</v>
+        <v>6.315490469839999</v>
       </c>
       <c r="S5">
-        <v>0.002672044294756597</v>
+        <v>0.02328698394375498</v>
       </c>
       <c r="T5">
-        <v>0.002672044294756597</v>
+        <v>0.02328698394375499</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.014446</v>
+        <v>0.1688733333333333</v>
       </c>
       <c r="H6">
-        <v>0.043338</v>
+        <v>0.50662</v>
       </c>
       <c r="I6">
-        <v>0.00401297433920606</v>
+        <v>0.05694728301592414</v>
       </c>
       <c r="J6">
-        <v>0.004012974339206059</v>
+        <v>0.05694728301592415</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N6">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O6">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P6">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q6">
-        <v>0.004502134422666666</v>
+        <v>0.07687322410444444</v>
       </c>
       <c r="R6">
-        <v>0.040519209804</v>
+        <v>0.69185901694</v>
       </c>
       <c r="S6">
-        <v>7.121792337382378E-05</v>
+        <v>0.002551078161825183</v>
       </c>
       <c r="T6">
-        <v>7.121792337382378E-05</v>
+        <v>0.002551078161825183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.014446</v>
+        <v>0.1688733333333333</v>
       </c>
       <c r="H7">
-        <v>0.043338</v>
+        <v>0.50662</v>
       </c>
       <c r="I7">
-        <v>0.00401297433920606</v>
+        <v>0.05694728301592414</v>
       </c>
       <c r="J7">
-        <v>0.004012974339206059</v>
+        <v>0.05694728301592415</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N7">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O7">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P7">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q7">
-        <v>0.010353029266</v>
+        <v>0.04561899193777778</v>
       </c>
       <c r="R7">
-        <v>0.093177263394</v>
+        <v>0.41057092744</v>
       </c>
       <c r="S7">
-        <v>0.0001637714860846423</v>
+        <v>0.001513890115221739</v>
       </c>
       <c r="T7">
-        <v>0.0001637714860846423</v>
+        <v>0.001513890115221739</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -918,13 +918,13 @@
         <v>2.334718333333333</v>
       </c>
       <c r="H8">
-        <v>7.004155000000001</v>
+        <v>7.004155</v>
       </c>
       <c r="I8">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370735</v>
       </c>
       <c r="J8">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N8">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O8">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P8">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q8">
-        <v>0.5381370110444444</v>
+        <v>1.417237843967778</v>
       </c>
       <c r="R8">
-        <v>4.843233099400001</v>
+        <v>12.75514059571</v>
       </c>
       <c r="S8">
-        <v>0.008512629081936975</v>
+        <v>0.04703177934811471</v>
       </c>
       <c r="T8">
-        <v>0.008512629081936977</v>
+        <v>0.04703177934811471</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -980,13 +980,13 @@
         <v>2.334718333333333</v>
       </c>
       <c r="H9">
-        <v>7.004155000000001</v>
+        <v>7.004155</v>
       </c>
       <c r="I9">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370735</v>
       </c>
       <c r="J9">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370736</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>12.941443</v>
       </c>
       <c r="O9">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P9">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q9">
         <v>10.07154141062944</v>
       </c>
       <c r="R9">
-        <v>90.64387269566501</v>
+        <v>90.643872695665</v>
       </c>
       <c r="S9">
-        <v>0.1593187135477956</v>
+        <v>0.3342293711223348</v>
       </c>
       <c r="T9">
-        <v>0.1593187135477956</v>
+        <v>0.3342293711223348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,13 +1042,13 @@
         <v>2.334718333333333</v>
       </c>
       <c r="H10">
-        <v>7.004155000000001</v>
+        <v>7.004155</v>
       </c>
       <c r="I10">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370735</v>
       </c>
       <c r="J10">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370736</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N10">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O10">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P10">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q10">
-        <v>0.6895255954538889</v>
+        <v>0.8407912180311113</v>
       </c>
       <c r="R10">
-        <v>6.205730359085001</v>
+        <v>7.567120962280002</v>
       </c>
       <c r="S10">
-        <v>0.01090740000433814</v>
+        <v>0.02790209647066897</v>
       </c>
       <c r="T10">
-        <v>0.01090740000433814</v>
+        <v>0.02790209647066897</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1104,13 +1104,13 @@
         <v>2.334718333333333</v>
       </c>
       <c r="H11">
-        <v>7.004155000000001</v>
+        <v>7.004155</v>
       </c>
       <c r="I11">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370735</v>
       </c>
       <c r="J11">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370736</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N11">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O11">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P11">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q11">
-        <v>27.29981399906056</v>
+        <v>9.701479994162224</v>
       </c>
       <c r="R11">
-        <v>245.698325991545</v>
+        <v>87.31331994746</v>
       </c>
       <c r="S11">
-        <v>0.4318476258097026</v>
+        <v>0.321948689401467</v>
       </c>
       <c r="T11">
-        <v>0.4318476258097027</v>
+        <v>0.321948689401467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1166,43 +1166,43 @@
         <v>2.334718333333333</v>
       </c>
       <c r="H12">
-        <v>7.004155000000001</v>
+        <v>7.004155</v>
       </c>
       <c r="I12">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370735</v>
       </c>
       <c r="J12">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370736</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N12">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O12">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P12">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q12">
-        <v>0.7276211944988888</v>
+        <v>1.062792580192778</v>
       </c>
       <c r="R12">
-        <v>6.548590750490001</v>
+        <v>9.565133221735</v>
       </c>
       <c r="S12">
-        <v>0.01151002293803093</v>
+        <v>0.03526932782467859</v>
       </c>
       <c r="T12">
-        <v>0.01151002293803094</v>
+        <v>0.03526932782467859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1228,13 +1228,13 @@
         <v>2.334718333333333</v>
       </c>
       <c r="H13">
-        <v>7.004155000000001</v>
+        <v>7.004155</v>
       </c>
       <c r="I13">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370735</v>
       </c>
       <c r="J13">
-        <v>0.6485646380271775</v>
+        <v>0.7873111939370736</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N13">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O13">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P13">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q13">
-        <v>1.673224922668333</v>
+        <v>0.6306945846511112</v>
       </c>
       <c r="R13">
-        <v>15.059024304015</v>
+        <v>5.67625126186</v>
       </c>
       <c r="S13">
-        <v>0.02646824664537306</v>
+        <v>0.02092992976980956</v>
       </c>
       <c r="T13">
-        <v>0.02646824664537306</v>
+        <v>0.02092992976980957</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.250659333333333</v>
+        <v>0.4610553333333333</v>
       </c>
       <c r="H14">
-        <v>3.751978</v>
+        <v>1.383166</v>
       </c>
       <c r="I14">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="J14">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N14">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O14">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P14">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q14">
-        <v>0.2882686386044445</v>
+        <v>0.2798731895124444</v>
       </c>
       <c r="R14">
-        <v>2.59441774744</v>
+        <v>2.518858705612</v>
       </c>
       <c r="S14">
-        <v>0.00456003572702028</v>
+        <v>0.009287738223071081</v>
       </c>
       <c r="T14">
-        <v>0.00456003572702028</v>
+        <v>0.009287738223071081</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.250659333333333</v>
+        <v>0.4610553333333333</v>
       </c>
       <c r="H15">
-        <v>3.751978</v>
+        <v>1.383166</v>
       </c>
       <c r="I15">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="J15">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.941443</v>
       </c>
       <c r="O15">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P15">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q15">
-        <v>5.395112158250444</v>
+        <v>1.988907105393111</v>
       </c>
       <c r="R15">
-        <v>48.55600942425399</v>
+        <v>17.900163948538</v>
       </c>
       <c r="S15">
-        <v>0.08534367218024601</v>
+        <v>0.06600292288474417</v>
       </c>
       <c r="T15">
-        <v>0.08534367218024602</v>
+        <v>0.06600292288474417</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.250659333333333</v>
+        <v>0.4610553333333333</v>
       </c>
       <c r="H16">
-        <v>3.751978</v>
+        <v>1.383166</v>
       </c>
       <c r="I16">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="J16">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N16">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O16">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P16">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q16">
-        <v>0.3693643079828889</v>
+        <v>0.1660377056017778</v>
       </c>
       <c r="R16">
-        <v>3.324278771846</v>
+        <v>1.494339350416</v>
       </c>
       <c r="S16">
-        <v>0.005842863964814683</v>
+        <v>0.005510048130995004</v>
       </c>
       <c r="T16">
-        <v>0.005842863964814684</v>
+        <v>0.005510048130995005</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.250659333333333</v>
+        <v>0.4610553333333333</v>
       </c>
       <c r="H17">
-        <v>3.751978</v>
+        <v>1.383166</v>
       </c>
       <c r="I17">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="J17">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N17">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O17">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P17">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q17">
-        <v>14.62393415459355</v>
+        <v>1.915828144523556</v>
       </c>
       <c r="R17">
-        <v>131.615407391342</v>
+        <v>17.242453300712</v>
       </c>
       <c r="S17">
-        <v>0.2313316583356931</v>
+        <v>0.06357775933351981</v>
       </c>
       <c r="T17">
-        <v>0.2313316583356931</v>
+        <v>0.06357775933351982</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.250659333333333</v>
+        <v>0.4610553333333333</v>
       </c>
       <c r="H18">
-        <v>3.751978</v>
+        <v>1.383166</v>
       </c>
       <c r="I18">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="J18">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N18">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O18">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P18">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q18">
-        <v>0.3897713163248889</v>
+        <v>0.2098780740824444</v>
       </c>
       <c r="R18">
-        <v>3.507941846924</v>
+        <v>1.888902666742</v>
       </c>
       <c r="S18">
-        <v>0.00616567635110694</v>
+        <v>0.006964913696220226</v>
       </c>
       <c r="T18">
-        <v>0.006165676351106941</v>
+        <v>0.006964913696220226</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.250659333333333</v>
+        <v>0.4610553333333333</v>
       </c>
       <c r="H19">
-        <v>3.751978</v>
+        <v>1.383166</v>
       </c>
       <c r="I19">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="J19">
-        <v>0.3474223876336165</v>
+        <v>0.1554765813825031</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,400 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N19">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O19">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P19">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q19">
-        <v>0.8963112750793333</v>
+        <v>0.1245482582657778</v>
       </c>
       <c r="R19">
-        <v>8.066801475714</v>
+        <v>1.120934324392</v>
       </c>
       <c r="S19">
-        <v>0.01417848107473543</v>
+        <v>0.004133199113952849</v>
       </c>
       <c r="T19">
-        <v>0.01417848107473543</v>
+        <v>0.004133199113952849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.0007856666666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.002357</v>
+      </c>
+      <c r="I20">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="J20">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6070273333333334</v>
+      </c>
+      <c r="N20">
+        <v>1.821082</v>
+      </c>
+      <c r="O20">
+        <v>0.0597372166308533</v>
+      </c>
+      <c r="P20">
+        <v>0.05973721663085329</v>
+      </c>
+      <c r="Q20">
+        <v>0.0004769211415555556</v>
+      </c>
+      <c r="R20">
+        <v>0.004292290274</v>
+      </c>
+      <c r="S20">
+        <v>1.582687760672149E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.582687760672149E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.0007856666666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.002357</v>
+      </c>
+      <c r="I21">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="J21">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N21">
+        <v>12.941443</v>
+      </c>
+      <c r="O21">
+        <v>0.4245200293050175</v>
+      </c>
+      <c r="P21">
+        <v>0.4245200293050175</v>
+      </c>
+      <c r="Q21">
+        <v>0.003389220127888889</v>
+      </c>
+      <c r="R21">
+        <v>0.030502981151</v>
+      </c>
+      <c r="S21">
+        <v>0.0001124730431772774</v>
+      </c>
+      <c r="T21">
+        <v>0.0001124730431772774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.0007856666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.002357</v>
+      </c>
+      <c r="I22">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="J22">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3601253333333334</v>
+      </c>
+      <c r="N22">
+        <v>1.080376</v>
+      </c>
+      <c r="O22">
+        <v>0.03543973042113138</v>
+      </c>
+      <c r="P22">
+        <v>0.03543973042113138</v>
+      </c>
+      <c r="Q22">
+        <v>0.0002829384702222223</v>
+      </c>
+      <c r="R22">
+        <v>0.002546446232000001</v>
+      </c>
+      <c r="S22">
+        <v>9.389461167173879E-06</v>
+      </c>
+      <c r="T22">
+        <v>9.389461167173881E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.0007856666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.002357</v>
+      </c>
+      <c r="I23">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="J23">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.155310666666667</v>
+      </c>
+      <c r="N23">
+        <v>12.465932</v>
+      </c>
+      <c r="O23">
+        <v>0.4089217730939553</v>
+      </c>
+      <c r="P23">
+        <v>0.4089217730939553</v>
+      </c>
+      <c r="Q23">
+        <v>0.003264689080444445</v>
+      </c>
+      <c r="R23">
+        <v>0.029382201724</v>
+      </c>
+      <c r="S23">
+        <v>0.0001083404152134351</v>
+      </c>
+      <c r="T23">
+        <v>0.0001083404152134352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.0007856666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.002357</v>
+      </c>
+      <c r="I24">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="J24">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.4552123333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.365637</v>
+      </c>
+      <c r="O24">
+        <v>0.04479718832436354</v>
+      </c>
+      <c r="P24">
+        <v>0.04479718832436353</v>
+      </c>
+      <c r="Q24">
+        <v>0.0003576451565555556</v>
+      </c>
+      <c r="R24">
+        <v>0.003218806409</v>
+      </c>
+      <c r="S24">
+        <v>1.186864163953645E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.186864163953645E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.0007856666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.002357</v>
+      </c>
+      <c r="I25">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="J25">
+        <v>0.0002649416644990984</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2701373333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.810412</v>
+      </c>
+      <c r="O25">
+        <v>0.02658406222467911</v>
+      </c>
+      <c r="P25">
+        <v>0.02658406222467911</v>
+      </c>
+      <c r="Q25">
+        <v>0.0002122378982222222</v>
+      </c>
+      <c r="R25">
+        <v>0.001910141084</v>
+      </c>
+      <c r="S25">
+        <v>7.043225694954088E-06</v>
+      </c>
+      <c r="T25">
+        <v>7.043225694954088E-06</v>
       </c>
     </row>
   </sheetData>
